--- a/相对值优化.xlsx
+++ b/相对值优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD04A7C-7ED6-4D43-89DA-388DFE240837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC516F-6C86-48D6-88B2-766B6EAE3236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Argentina</t>
   </si>
@@ -125,6 +125,34 @@
   </si>
   <si>
     <t>CO2被多少人排放（越高越好）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avar_temperture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_per_capit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain_height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_yield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_export</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +495,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="A27:L50"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,25 +506,25 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>30</v>
@@ -1571,7 +1599,7 @@
         <v>0.64076246334310849</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:M50" si="11">L3/$L$25</f>
+        <f t="shared" ref="L29:L50" si="11">L3/$L$25</f>
         <v>2.2253811762008477</v>
       </c>
       <c r="M29">

--- a/相对值优化.xlsx
+++ b/相对值优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC516F-6C86-48D6-88B2-766B6EAE3236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09412A-464D-4F0C-B8DA-E54FF08CF314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Argentina</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>grain_export</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain_consumption</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,7 +534,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>32</v>
